--- a/data/trans_orig/P50_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Estudios-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7095</v>
+        <v>7516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002219505488337831</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01248877275995217</v>
+        <v>0.01323048376870188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6295</v>
+        <v>6344</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00152938442543616</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00763515632670416</v>
+        <v>0.007695147217158859</v>
       </c>
     </row>
     <row r="5">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5667</v>
+        <v>5797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004177902206977431</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02210715971480032</v>
+        <v>0.02261512613582644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5351</v>
+        <v>5377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001299054373565776</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006490933511790527</v>
+        <v>0.006521683777788657</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6189</v>
+        <v>5134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001803300130198503</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01089496611582295</v>
+        <v>0.009037134066599983</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5135</v>
+        <v>5152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001242591716039408</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006228617898565138</v>
+        <v>0.006248980179938309</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +931,7 @@
         <v>565805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>559041</v>
+        <v>560672</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>568090</v>
@@ -940,7 +940,7 @@
         <v>0.9959771943814637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9840716903355446</v>
+        <v>0.9869419165973955</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>255274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250678</v>
+        <v>250548</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>256345</v>
@@ -961,7 +961,7 @@
         <v>0.9958220977930226</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9778928402852008</v>
+        <v>0.9773848738641742</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -973,19 +973,19 @@
         <v>821079</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>815257</v>
+        <v>815380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>823420</v>
+        <v>823415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9959289694849587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.988867408647212</v>
+        <v>0.9890168159828709</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9987692310532593</v>
+        <v>0.9987621910806893</v>
       </c>
     </row>
     <row r="8">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5378</v>
+        <v>4463</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0006481948003780255</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.003348713547847166</v>
+        <v>0.002779499804630668</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5230</v>
+        <v>5179</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0003965900805070063</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.001992674596916837</v>
+        <v>0.00197318004218504</v>
       </c>
     </row>
     <row r="10">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5080</v>
+        <v>5068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0005934956290204455</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.003163305351571633</v>
+        <v>0.003155729810654176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6767</v>
+        <v>6818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001913016330275319</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006642681775435957</v>
+        <v>0.006691854532652526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1182,19 +1182,19 @@
         <v>2902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7833</v>
+        <v>8097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001105683687625086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0003604463658930193</v>
+        <v>0.0003614301459257511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002984338009273978</v>
+        <v>0.003084845887373615</v>
       </c>
     </row>
     <row r="11">
@@ -1211,19 +1211,19 @@
         <v>8247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3656</v>
+        <v>3995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15744</v>
+        <v>15293</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005135513142739414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00227659794699493</v>
+        <v>0.002487684565318898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.00980441365516662</v>
+        <v>0.009523064166880589</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1232,19 +1232,19 @@
         <v>5068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1936</v>
+        <v>1914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12214</v>
+        <v>11044</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004974834969355503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001900485981658426</v>
+        <v>0.001878658670933149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01198877058625486</v>
+        <v>0.01084071924115888</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1253,19 +1253,19 @@
         <v>13315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7170</v>
+        <v>7311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22335</v>
+        <v>22256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005073143949435073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002731732260923957</v>
+        <v>0.002785627907112503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00850979003184877</v>
+        <v>0.008479661629517377</v>
       </c>
     </row>
     <row r="12">
@@ -1282,19 +1282,19 @@
         <v>1595615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1588319</v>
+        <v>1587452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1601164</v>
+        <v>1600611</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9936227964278621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9890792579748614</v>
+        <v>0.9885397548834819</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9970779412768823</v>
+        <v>0.9967336616884008</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>937</v>
@@ -1303,19 +1303,19 @@
         <v>1011770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1004731</v>
+        <v>1004683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1015859</v>
+        <v>1015730</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9931121487003691</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9862030185963182</v>
+        <v>0.9861556705503801</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9971263013715577</v>
+        <v>0.9969996044037783</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2445</v>
@@ -1324,19 +1324,19 @@
         <v>2607385</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2597799</v>
+        <v>2597078</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2614605</v>
+        <v>2613843</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9934245822824328</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9897723763150548</v>
+        <v>0.9894977673598045</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9961754896868007</v>
+        <v>0.995885134749927</v>
       </c>
     </row>
     <row r="13">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4736</v>
+        <v>5258</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002120043987207253</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01071654763526538</v>
+        <v>0.01189740856203916</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5034</v>
+        <v>5905</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002684888488067131</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01354741299393585</v>
+        <v>0.01589285524994348</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6804</v>
+        <v>6758</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002378024069399544</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008363440127569828</v>
+        <v>0.008306278046116429</v>
       </c>
     </row>
     <row r="16">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5904</v>
+        <v>4867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002224213404217803</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01335802555513373</v>
+        <v>0.01101244123112788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6350</v>
+        <v>6392</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00312413731426425</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01709049559035928</v>
+        <v>0.01720182570175412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7419</v>
+        <v>7376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002635233506081525</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009119528294336189</v>
+        <v>0.00906625703190172</v>
       </c>
     </row>
     <row r="17">
@@ -1617,7 +1617,7 @@
         <v>440058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435138</v>
+        <v>435352</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>441978</v>
@@ -1626,7 +1626,7 @@
         <v>0.9956557426085749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.984523151442916</v>
+        <v>0.9850086629779167</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>369412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>364363</v>
+        <v>364603</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>371570</v>
@@ -1647,7 +1647,7 @@
         <v>0.9941909741976687</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9806037607039915</v>
+        <v>0.9812498173940443</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1659,19 +1659,19 @@
         <v>809469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>803157</v>
+        <v>803175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>812551</v>
+        <v>812549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9949867424245189</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9872273594354906</v>
+        <v>0.9872501626160917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9987748101763871</v>
+        <v>0.9987717476613207</v>
       </c>
     </row>
     <row r="18">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8315</v>
+        <v>7562</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0008799132314912033</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003178593556962294</v>
+        <v>0.002890749832819273</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7168</v>
+        <v>8276</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0005399924400465601</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00168162396919027</v>
+        <v>0.001941457939902087</v>
       </c>
     </row>
     <row r="20">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6093</v>
+        <v>6106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0007225291882760275</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.002329066014275809</v>
+        <v>0.002334084485142513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1850,16 +1850,16 @@
         <v>1004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10308</v>
+        <v>9966</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002439764492733849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0006098816183045078</v>
+        <v>0.000609701578664317</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.00625974986542351</v>
+        <v>0.006052154724741742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1868,19 +1868,19 @@
         <v>5908</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2021</v>
+        <v>2064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11920</v>
+        <v>12788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001385917307578131</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0004741484177722939</v>
+        <v>0.0004841232108072565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002796284970800832</v>
+        <v>0.00300009079704384</v>
       </c>
     </row>
     <row r="21">
@@ -1897,19 +1897,19 @@
         <v>10254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5139</v>
+        <v>5120</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17980</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003919985884010172</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001964379770813903</v>
+        <v>0.001957231376954342</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.006873239857380099</v>
+        <v>0.007339687431755576</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1918,19 +1918,19 @@
         <v>6229</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13372</v>
+        <v>13339</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003782792370883443</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00133424035500883</v>
+        <v>0.001322768536829813</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008120657210014282</v>
+        <v>0.008100477222736787</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1939,19 +1939,19 @@
         <v>16484</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9887</v>
+        <v>9680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>27017</v>
+        <v>26872</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003866986422365442</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002319389832176678</v>
+        <v>0.002270913035910807</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006338075615162364</v>
+        <v>0.006304013511969415</v>
       </c>
     </row>
     <row r="22">
@@ -1968,19 +1968,19 @@
         <v>2601478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2592329</v>
+        <v>2592605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2607557</v>
+        <v>2608066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9944775716962226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9909802708681189</v>
+        <v>0.9910858163175914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9968013729102674</v>
+        <v>0.996996118339012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1511</v>
@@ -1989,19 +1989,19 @@
         <v>1636455</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1627568</v>
+        <v>1627690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1641573</v>
+        <v>1641489</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9937774431363827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9883802158892413</v>
+        <v>0.9884543150290772</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9968851244766713</v>
+        <v>0.9968343895425481</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3956</v>
@@ -2010,19 +2010,19 @@
         <v>4237933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4226001</v>
+        <v>4226215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4245940</v>
+        <v>4245692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9942071038300099</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9914078980915443</v>
+        <v>0.9914580905859877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9960854488627187</v>
+        <v>0.9960273101538747</v>
       </c>
     </row>
     <row r="23">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8099</v>
+        <v>7969</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005060937619706801</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01882399577543006</v>
+        <v>0.01852161456012665</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8533</v>
+        <v>8124</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003681606667986511</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01442743023231946</v>
+        <v>0.01373450284332698</v>
       </c>
     </row>
     <row r="7">
@@ -2510,7 +2510,7 @@
         <v>428088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>422167</v>
+        <v>422297</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>430266</v>
@@ -2519,7 +2519,7 @@
         <v>0.9949390623802932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9811760042245701</v>
+        <v>0.9814783854398736</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -2544,7 +2544,7 @@
         <v>589289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>582934</v>
+        <v>583343</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>591467</v>
@@ -2553,7 +2553,7 @@
         <v>0.9963183933320134</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9855725697676803</v>
+        <v>0.986265497156673</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -2664,16 +2664,16 @@
         <v>887</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8203</v>
+        <v>7930</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002665271041620194</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0008010786331888772</v>
+        <v>0.0008012574597110474</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007408166438756237</v>
+        <v>0.007161853945579342</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -2682,19 +2682,19 @@
         <v>2951</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8454</v>
+        <v>8317</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00107829689492953</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0003257010282956386</v>
+        <v>0.0003250483794475554</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003088739291606458</v>
+        <v>0.003038708519915775</v>
       </c>
     </row>
     <row r="10">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4739</v>
+        <v>5095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0006262404650861391</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.002907769743075853</v>
+        <v>0.003126661239829188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5115</v>
+        <v>4845</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0003728804358670785</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.001869037923609668</v>
+        <v>0.001770104518526026</v>
       </c>
     </row>
     <row r="11">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7313</v>
+        <v>7505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.001248614870062494</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.004487235419590562</v>
+        <v>0.004604999846288688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6220</v>
+        <v>6661</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001825994281324194</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005617135430327459</v>
+        <v>0.006015417898522892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -2816,19 +2816,19 @@
         <v>4057</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10015</v>
+        <v>9878</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001482207032599654</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.000397718660839666</v>
+        <v>0.0003968664756623655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00365931957310324</v>
+        <v>0.003608954941272924</v>
       </c>
     </row>
     <row r="12">
@@ -2845,19 +2845,19 @@
         <v>1626603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1620369</v>
+        <v>1621536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1628716</v>
+        <v>1628712</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9981251446648514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9943000938176478</v>
+        <v>0.9950159071913882</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9994222538187306</v>
+        <v>0.9994196175233367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1076</v>
@@ -2866,19 +2866,19 @@
         <v>1102326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1096133</v>
+        <v>1095546</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1105359</v>
+        <v>1105286</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9955087346770556</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.989915929813009</v>
+        <v>0.98938583183786</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9982475739934226</v>
+        <v>0.9981820750374737</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2606</v>
@@ -2887,19 +2887,19 @@
         <v>2728927</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2720779</v>
+        <v>2721399</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2732991</v>
+        <v>2733023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9970666156366037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9940893173300366</v>
+        <v>0.9943160110266392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9985514505093648</v>
+        <v>0.9985630392460428</v>
       </c>
     </row>
     <row r="13">
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5029</v>
+        <v>4296</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002237674455609333</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01118860556956879</v>
+        <v>0.00955753090049067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5438</v>
+        <v>5036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001050759760248766</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005681058962918062</v>
+        <v>0.005261524531041143</v>
       </c>
     </row>
     <row r="15">
@@ -3161,7 +3161,7 @@
         <v>448457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>444434</v>
+        <v>445167</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>449463</v>
@@ -3170,7 +3170,7 @@
         <v>0.9977623255443907</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9888113944304312</v>
+        <v>0.9904424690995104</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3182,7 +3182,7 @@
         <v>956161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>951729</v>
+        <v>952131</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>957167</v>
@@ -3191,7 +3191,7 @@
         <v>0.9989492402397512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9943189410370815</v>
+        <v>0.9947384754689589</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3299,19 +3299,19 @@
         <v>3957</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9225</v>
+        <v>9145</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002303311347015989</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0005867904736209198</v>
+        <v>0.0005829833149911364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005369799738512901</v>
+        <v>0.005323010175713051</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3320,19 +3320,19 @@
         <v>3957</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9557</v>
+        <v>9373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0009233277215442198</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0002347363460300187</v>
+        <v>0.0002342826298425244</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002229966726265455</v>
+        <v>0.002187190170720638</v>
       </c>
     </row>
     <row r="20">
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5112</v>
+        <v>5124</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0003974710780118277</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00199092838561289</v>
+        <v>0.001995583321304434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4096</v>
+        <v>5105</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0002381369674427809</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0009557681375399124</v>
+        <v>0.001191085215495494</v>
       </c>
     </row>
     <row r="21">
@@ -3412,19 +3412,19 @@
         <v>4212</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10365</v>
+        <v>10320</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001640566348559432</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0004249098341981601</v>
+        <v>0.0004219605909346785</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.004036759860013444</v>
+        <v>0.004019143170343012</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7162</v>
+        <v>6398</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001176929315327507</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.004169011002644808</v>
+        <v>0.003724006144971497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -3454,19 +3454,19 @@
         <v>6234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2193</v>
+        <v>2341</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13098</v>
+        <v>13711</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001454708311576218</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0005116459161475515</v>
+        <v>0.0005463316213523532</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.003056262523553079</v>
+        <v>0.003199388094606902</v>
       </c>
     </row>
     <row r="22">
@@ -3483,19 +3483,19 @@
         <v>2562394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2555847</v>
+        <v>2555779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2565665</v>
+        <v>2565680</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9979619625734287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9954120759709182</v>
+        <v>0.9953857173049174</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9992359025799411</v>
+        <v>0.9992415188622987</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1669</v>
@@ -3504,19 +3504,19 @@
         <v>1711984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1705946</v>
+        <v>1705781</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1715896</v>
+        <v>1715870</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9965197593376565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9930051794305611</v>
+        <v>0.9929091834719627</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9987969628876731</v>
+        <v>0.9987815784693067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4084</v>
@@ -3525,19 +3525,19 @@
         <v>4274378</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4265647</v>
+        <v>4264897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4279489</v>
+        <v>4279365</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9973838269994367</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9953464870009127</v>
+        <v>0.9951715520473603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9985765085013937</v>
+        <v>0.9985474210747727</v>
       </c>
     </row>
     <row r="23">
